--- a/Data/Assumption/Zone_Limit/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneC1.xlsx
@@ -280,7 +280,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -585,7 +585,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2737,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
